--- a/Data/Forecasts/IDA1/2023-12-05_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-05_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45265</v>
       </c>
       <c r="B2" t="n">
-        <v>76.14447784423828</v>
+        <v>71.12864685058594</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45265.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>84.14842987060547</v>
+        <v>78.61978912353516</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45265.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>86.16073608398438</v>
+        <v>78.98636627197266</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45265.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>81.86759948730469</v>
+        <v>70.17758178710938</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45265.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>86.13419342041016</v>
+        <v>73.04037475585938</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45265.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>87.87019348144531</v>
+        <v>70.4913330078125</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45265.125</v>
       </c>
       <c r="B8" t="n">
-        <v>83.91997528076172</v>
+        <v>73.14675140380859</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45265.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>78.79881286621094</v>
+        <v>69.950927734375</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45265.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>88.82199859619141</v>
+        <v>75.00868988037109</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45265.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>85.65769958496094</v>
+        <v>73.83725738525391</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45265.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>88.30551910400391</v>
+        <v>77.23316192626953</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45265.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>92.98348999023438</v>
+        <v>82.10135650634766</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45265.25</v>
       </c>
       <c r="B14" t="n">
-        <v>106.457389831543</v>
+        <v>90.89797210693359</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45265.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>109.9430313110352</v>
+        <v>94.66370391845703</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45265.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>127.9705200195312</v>
+        <v>119.9867248535156</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45265.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>155.6562652587891</v>
+        <v>141.1851654052734</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45265.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>158.9122161865234</v>
+        <v>146.3899688720703</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45265.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>169.7918243408203</v>
+        <v>158.5798950195312</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45265.375</v>
       </c>
       <c r="B20" t="n">
-        <v>171.9698944091797</v>
+        <v>165.6387329101562</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45265.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>171.4996337890625</v>
+        <v>169.9825134277344</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>179.2857666015625</v>
+        <v>175.7830963134766</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45265.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>173.7945861816406</v>
+        <v>170.114013671875</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45265.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>183.7121734619141</v>
+        <v>179.4694366455078</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45265.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>174.922119140625</v>
+        <v>176.4613494873047</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45265.5</v>
       </c>
       <c r="B26" t="n">
-        <v>167.1940307617188</v>
+        <v>176.6168060302734</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45265.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>171.7760009765625</v>
+        <v>178.2748260498047</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45265.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>159.437744140625</v>
+        <v>165.5623931884766</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45265.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>157.0195770263672</v>
+        <v>159.8275604248047</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45265.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>158.0130157470703</v>
+        <v>155.7873382568359</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45265.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>159.0131378173828</v>
+        <v>160.3440246582031</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45265.625</v>
       </c>
       <c r="B32" t="n">
-        <v>168.8796691894531</v>
+        <v>165.8476409912109</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45265.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>197.9273529052734</v>
+        <v>192.6987457275391</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>189.1131286621094</v>
+        <v>181.5899200439453</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45265.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>213.7863616943359</v>
+        <v>209.0895690917969</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45265.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>188.8581390380859</v>
+        <v>197.2672729492188</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45265.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>186.1906890869141</v>
+        <v>200.8886566162109</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45265.75</v>
       </c>
       <c r="B38" t="n">
-        <v>157.9754486083984</v>
+        <v>170.5570526123047</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45265.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>141.930419921875</v>
+        <v>158.2053680419922</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45265.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>145.4779052734375</v>
+        <v>152.5767364501953</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45265.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>128.4999542236328</v>
+        <v>135.9251098632812</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45265.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>124.7476119995117</v>
+        <v>124.5309371948242</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45265.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>107.7724227905273</v>
+        <v>109.4862823486328</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45265.875</v>
       </c>
       <c r="B44" t="n">
-        <v>121.6006546020508</v>
+        <v>116.2278289794922</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45265.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>108.4141540527344</v>
+        <v>102.7370834350586</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45265.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>110.7577590942383</v>
+        <v>104.7714233398438</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45265.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>100.5454788208008</v>
+        <v>90.45456695556641</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45265.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>102.8452606201172</v>
+        <v>95.49989318847656</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45265.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>108.221061706543</v>
+        <v>94.38885498046875</v>
       </c>
     </row>
   </sheetData>
